--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/შუახევი.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/შუახევი.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F0665-2FD4-48D5-B920-47A58FFAC213}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384651D4-D078-4251-8011-7CCF019195C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="210" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="შუახევი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები შუახევის მუნიციპალიტეტში</t>
   </si>
@@ -76,16 +76,22 @@
     <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
   </si>
   <si>
+    <t xml:space="preserve"> დაწყებითი საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:   გოგო</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               ბიჭი</t>
+  </si>
+  <si>
+    <t>საბაზო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
     <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    მათ შორის:   გოგო</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               ბიჭი</t>
   </si>
   <si>
     <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა 1000 მოსახლეზე;</t>
@@ -110,7 +116,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -119,7 +125,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
@@ -131,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,49 +152,55 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -196,21 +208,35 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -275,36 +301,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -316,15 +330,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,11 +674,11 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1">
       <c r="A3" s="5"/>
@@ -679,633 +709,926 @@
       <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="17" t="s">
         <v>15</v>
       </c>
+      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="19">
         <v>44</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="19">
         <v>44</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="19">
         <v>44</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="19">
         <v>44</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="19">
         <v>44</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="19">
         <v>44</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="19">
         <v>44</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="19">
         <v>44</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="19">
         <v>44</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="19">
         <v>44</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="19">
         <v>44</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="19">
         <v>44</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="20">
         <v>44</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="19">
         <v>44</v>
       </c>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="20">
         <v>3446</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="20">
         <v>3204</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="20">
         <v>2942</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="20">
         <v>2689</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="20">
         <v>2534</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="20">
         <v>2410</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="20">
         <v>2174</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="20">
         <v>1984</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="20">
         <v>1829</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="20">
         <v>1701</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="20">
         <v>1663</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="20">
         <v>1586</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="20">
         <v>1448</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="20">
         <v>1366</v>
       </c>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="33" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="20">
+        <v>258</v>
+      </c>
+      <c r="D6" s="20">
+        <v>219</v>
+      </c>
+      <c r="E6" s="20">
+        <v>180</v>
+      </c>
+      <c r="F6" s="20">
+        <v>189</v>
+      </c>
+      <c r="G6" s="20">
+        <v>176</v>
+      </c>
+      <c r="H6" s="20">
+        <v>165</v>
+      </c>
+      <c r="I6" s="20">
+        <v>142</v>
+      </c>
+      <c r="J6" s="20">
+        <v>106</v>
+      </c>
+      <c r="K6" s="20">
+        <v>111</v>
+      </c>
+      <c r="L6" s="20">
+        <v>119</v>
+      </c>
+      <c r="M6" s="20">
+        <v>143</v>
+      </c>
+      <c r="N6" s="20">
+        <v>110</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14">
-        <v>387</v>
-      </c>
-      <c r="D6" s="14">
-        <v>211</v>
-      </c>
-      <c r="E6" s="14">
-        <v>278</v>
-      </c>
-      <c r="F6" s="14">
-        <v>319</v>
-      </c>
-      <c r="G6" s="14">
-        <v>316</v>
-      </c>
-      <c r="H6" s="14">
-        <v>256</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="B7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="20">
+        <v>112</v>
+      </c>
+      <c r="D7" s="20">
+        <v>98</v>
+      </c>
+      <c r="E7" s="20">
+        <v>77</v>
+      </c>
+      <c r="F7" s="20">
+        <v>88</v>
+      </c>
+      <c r="G7" s="20">
+        <v>78</v>
+      </c>
+      <c r="H7" s="20">
+        <v>72</v>
+      </c>
+      <c r="I7" s="20">
+        <v>72</v>
+      </c>
+      <c r="J7" s="20">
+        <v>54</v>
+      </c>
+      <c r="K7" s="20">
+        <v>50</v>
+      </c>
+      <c r="L7" s="20">
+        <v>58</v>
+      </c>
+      <c r="M7" s="20">
+        <v>68</v>
+      </c>
+      <c r="N7" s="20">
+        <v>52</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="20">
+        <v>146</v>
+      </c>
+      <c r="D8" s="20">
+        <v>121</v>
+      </c>
+      <c r="E8" s="20">
+        <v>103</v>
+      </c>
+      <c r="F8" s="20">
+        <v>101</v>
+      </c>
+      <c r="G8" s="20">
+        <v>98</v>
+      </c>
+      <c r="H8" s="20">
+        <v>93</v>
+      </c>
+      <c r="I8" s="20">
+        <v>70</v>
+      </c>
+      <c r="J8" s="20">
+        <v>52</v>
+      </c>
+      <c r="K8" s="20">
+        <v>61</v>
+      </c>
+      <c r="L8" s="20">
+        <v>61</v>
+      </c>
+      <c r="M8" s="20">
+        <v>75</v>
+      </c>
+      <c r="N8" s="20">
+        <v>58</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" ht="33" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="20">
+        <v>312</v>
+      </c>
+      <c r="D9" s="20">
+        <v>282</v>
+      </c>
+      <c r="E9" s="20">
+        <v>236</v>
+      </c>
+      <c r="F9" s="20">
+        <v>240</v>
+      </c>
+      <c r="G9" s="20">
+        <v>203</v>
+      </c>
+      <c r="H9" s="20">
+        <v>178</v>
+      </c>
+      <c r="I9" s="20">
+        <v>162</v>
+      </c>
+      <c r="J9" s="20">
+        <v>188</v>
+      </c>
+      <c r="K9" s="20">
+        <v>161</v>
+      </c>
+      <c r="L9" s="20">
+        <v>141</v>
+      </c>
+      <c r="M9" s="20">
+        <v>104</v>
+      </c>
+      <c r="N9" s="20">
+        <v>97</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="20">
+        <v>154</v>
+      </c>
+      <c r="D10" s="20">
+        <v>134</v>
+      </c>
+      <c r="E10" s="20">
+        <v>112</v>
+      </c>
+      <c r="F10" s="20">
+        <v>108</v>
+      </c>
+      <c r="G10" s="20">
+        <v>93</v>
+      </c>
+      <c r="H10" s="20">
+        <v>74</v>
+      </c>
+      <c r="I10" s="20">
+        <v>73</v>
+      </c>
+      <c r="J10" s="20">
+        <v>84</v>
+      </c>
+      <c r="K10" s="20">
+        <v>73</v>
+      </c>
+      <c r="L10" s="20">
+        <v>72</v>
+      </c>
+      <c r="M10" s="20">
+        <v>51</v>
+      </c>
+      <c r="N10" s="20">
+        <v>40</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="20">
+        <v>158</v>
+      </c>
+      <c r="D11" s="20">
+        <v>148</v>
+      </c>
+      <c r="E11" s="20">
+        <v>124</v>
+      </c>
+      <c r="F11" s="20">
+        <v>132</v>
+      </c>
+      <c r="G11" s="20">
+        <v>110</v>
+      </c>
+      <c r="H11" s="20">
+        <v>104</v>
+      </c>
+      <c r="I11" s="20">
+        <v>89</v>
+      </c>
+      <c r="J11" s="20">
+        <v>104</v>
+      </c>
+      <c r="K11" s="20">
+        <v>88</v>
+      </c>
+      <c r="L11" s="20">
+        <v>69</v>
+      </c>
+      <c r="M11" s="20">
+        <v>53</v>
+      </c>
+      <c r="N11" s="20">
+        <v>57</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" ht="33" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="20">
+        <v>390</v>
+      </c>
+      <c r="D12" s="20">
+        <v>395</v>
+      </c>
+      <c r="E12" s="20">
+        <v>276</v>
+      </c>
+      <c r="F12" s="20">
+        <v>318</v>
+      </c>
+      <c r="G12" s="20">
+        <v>314</v>
+      </c>
+      <c r="H12" s="20">
+        <v>254</v>
+      </c>
+      <c r="I12" s="20">
         <v>215</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J12" s="20">
         <v>177</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K12" s="20">
         <v>158</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L12" s="20">
         <v>155</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M12" s="20">
         <v>176</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N12" s="20">
         <v>157</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" ht="21" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="B13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="20">
+        <v>196</v>
+      </c>
+      <c r="D13" s="20">
+        <v>187</v>
+      </c>
+      <c r="E13" s="20">
+        <v>128</v>
+      </c>
+      <c r="F13" s="20">
+        <v>158</v>
+      </c>
+      <c r="G13" s="20">
+        <v>136</v>
+      </c>
+      <c r="H13" s="20">
+        <v>118</v>
+      </c>
+      <c r="I13" s="20">
+        <v>94</v>
+      </c>
+      <c r="J13" s="20">
+        <v>81</v>
+      </c>
+      <c r="K13" s="20">
+        <v>69</v>
+      </c>
+      <c r="L13" s="20">
+        <v>70</v>
+      </c>
+      <c r="M13" s="20">
+        <v>79</v>
+      </c>
+      <c r="N13" s="20">
+        <v>69</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" ht="21" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11">
-        <v>191</v>
-      </c>
-      <c r="D7" s="11">
-        <v>110</v>
-      </c>
-      <c r="E7" s="11">
-        <v>130</v>
-      </c>
-      <c r="F7" s="11">
-        <v>158</v>
-      </c>
-      <c r="G7" s="11">
-        <v>138</v>
-      </c>
-      <c r="H7" s="11">
-        <v>119</v>
-      </c>
-      <c r="I7" s="11">
-        <v>94</v>
-      </c>
-      <c r="J7" s="11">
-        <v>81</v>
-      </c>
-      <c r="K7" s="11">
-        <v>69</v>
-      </c>
-      <c r="L7" s="11">
-        <v>70</v>
-      </c>
-      <c r="M7" s="11">
-        <v>79</v>
-      </c>
-      <c r="N7" s="11">
-        <v>69</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11">
-        <v>196</v>
-      </c>
-      <c r="D8" s="11">
-        <v>101</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="B14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="20">
+        <v>194</v>
+      </c>
+      <c r="D14" s="20">
+        <v>208</v>
+      </c>
+      <c r="E14" s="20">
         <v>148</v>
       </c>
-      <c r="F8" s="11">
-        <v>161</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F14" s="20">
+        <v>160</v>
+      </c>
+      <c r="G14" s="20">
         <v>178</v>
       </c>
-      <c r="H8" s="11">
-        <v>137</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H14" s="20">
+        <v>136</v>
+      </c>
+      <c r="I14" s="20">
         <v>121</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J14" s="20">
         <v>96</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K14" s="20">
         <v>89</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L14" s="20">
         <v>85</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M14" s="20">
         <v>97</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N14" s="20">
         <v>88</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="27" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="26">
-        <v>24.142986368882401</v>
-      </c>
-      <c r="D9" s="26">
-        <v>13.3671206841939</v>
-      </c>
-      <c r="E9" s="26">
-        <v>17.877813504823202</v>
-      </c>
-      <c r="F9" s="26">
-        <v>20.806157057135401</v>
-      </c>
-      <c r="G9" s="26">
-        <v>20.786738587028001</v>
-      </c>
-      <c r="H9" s="26">
-        <v>16.8859866099403</v>
-      </c>
-      <c r="I9" s="26">
-        <v>14.2115874012625</v>
-      </c>
-      <c r="J9" s="26">
-        <v>11.708285100049601</v>
-      </c>
-      <c r="K9" s="26">
-        <v>10.4576893801502</v>
-      </c>
-      <c r="L9" s="26">
-        <v>10.2849938621811</v>
-      </c>
-      <c r="M9" s="26">
-        <v>11.743119266055</v>
-      </c>
-      <c r="N9" s="27">
-        <v>10.611334527390101</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="O14" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="27" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="27">
+        <v>24.707000316756414</v>
+      </c>
+      <c r="D15" s="27">
+        <v>25.40192926045016</v>
+      </c>
+      <c r="E15" s="27">
+        <v>18.001565353509001</v>
+      </c>
+      <c r="F15" s="27">
+        <v>20.918300223654786</v>
+      </c>
+      <c r="G15" s="27">
+        <v>20.711717951254908</v>
+      </c>
+      <c r="H15" s="27">
+        <v>16.789503255445023</v>
+      </c>
+      <c r="I15" s="27">
+        <v>14.221928228873823</v>
+      </c>
+      <c r="J15" s="27">
+        <v>11.71525962206705</v>
+      </c>
+      <c r="K15" s="27">
+        <v>10.48405825951362</v>
+      </c>
+      <c r="L15" s="27">
+        <v>10.341951626355296</v>
+      </c>
+      <c r="M15" s="27">
+        <v>11.822395378518172</v>
+      </c>
+      <c r="N15" s="27">
+        <v>10.611334527390087</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="20">
         <v>842</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I16" s="20">
         <v>818</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J16" s="20">
         <v>803</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K16" s="20">
         <v>736</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L16" s="20">
         <v>722</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M16" s="20">
         <v>688</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N16" s="20">
         <v>683</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O16" s="21">
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11">
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="20">
         <v>486</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I17" s="20">
         <v>471</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J17" s="20">
         <v>459</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K17" s="20">
         <v>438</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L17" s="20">
         <v>432</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M17" s="20">
         <v>411</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N17" s="20">
         <v>402</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O17" s="21">
         <v>409</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="19">
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="23">
         <v>356</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I18" s="23">
         <v>347</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J18" s="23">
         <v>344</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K18" s="23">
         <v>298</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L18" s="23">
         <v>290</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M18" s="23">
         <v>277</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N18" s="23">
         <v>281</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O18" s="22">
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="21"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="21"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="21"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="21"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="21"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="21"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="21"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="21"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="21"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="21"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+    <row r="19" spans="1:15">
+      <c r="A19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
